--- a/Excel/MockData/Positive Comments - August 19.xlsx
+++ b/Excel/MockData/Positive Comments - August 19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chak\Documents\Other\Mock Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C351686-1D4C-4FD7-8716-816366FAD2AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556FEE57-FEAC-483E-82FD-67BBB6201DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="32">
   <si>
     <t>CLINIC</t>
   </si>
@@ -31,88 +31,91 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>Special Care Baby Unit</t>
+  </si>
+  <si>
+    <t>Extremely Likely</t>
+  </si>
+  <si>
+    <t>Glad to have such capable people taking care of me</t>
+  </si>
+  <si>
+    <t>Bone Health</t>
+  </si>
+  <si>
+    <t>Was treated well and quickly</t>
+  </si>
+  <si>
+    <t>Day Surgery</t>
+  </si>
+  <si>
+    <t>Nurses really took great care of me and were very helpful</t>
+  </si>
+  <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Very engaging staff</t>
+  </si>
+  <si>
+    <t>Labour and Delivery Suite</t>
+  </si>
+  <si>
+    <t>had to spend 3 nights in the hospital and found it a pleasant experience</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>Thank you for taking care of me</t>
+  </si>
+  <si>
+    <t>Will be recovering soon thanks to the doctors</t>
+  </si>
+  <si>
+    <t>Theatre Treatment Suite Implants</t>
+  </si>
+  <si>
+    <t>doctors were well trained and good</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Rehab Services</t>
+  </si>
+  <si>
+    <t>Dermatology</t>
+  </si>
+  <si>
+    <t>Was treated well by all staff</t>
+  </si>
+  <si>
+    <t>Pristine service</t>
+  </si>
+  <si>
     <t>Sitwell</t>
   </si>
   <si>
-    <t>Extremely Likely</t>
-  </si>
-  <si>
-    <t>Glad to have such capable people taking care of me</t>
-  </si>
-  <si>
-    <t>Heart Failure</t>
-  </si>
-  <si>
-    <t>Will be recovering soon thanks to the doctors</t>
-  </si>
-  <si>
-    <t>Special Care Baby Unit</t>
-  </si>
-  <si>
-    <t>Likely</t>
-  </si>
-  <si>
-    <t>Short waiting times!</t>
-  </si>
-  <si>
-    <t>Dermatology</t>
-  </si>
-  <si>
-    <t>Staff was good but food was quite bad</t>
-  </si>
-  <si>
-    <t>Nurses really took care of me</t>
-  </si>
-  <si>
     <t>Good service</t>
   </si>
   <si>
-    <t>Bone Health</t>
-  </si>
-  <si>
-    <t>Excellent service</t>
-  </si>
-  <si>
-    <t>Theatre Treatment Suite Implants</t>
-  </si>
-  <si>
-    <t>Pristine service</t>
+    <t>Orthodontics</t>
+  </si>
+  <si>
+    <t>Staff was good and food was actualy really good</t>
+  </si>
+  <si>
+    <t>Was taken care of very well and the doctors were good</t>
+  </si>
+  <si>
+    <t>Short waiting times and great staff!</t>
   </si>
   <si>
     <t>Gynaecology</t>
-  </si>
-  <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>Was taken care of very well but pain meds were sparce</t>
-  </si>
-  <si>
-    <t>Day Surgery</t>
-  </si>
-  <si>
-    <t>A&amp;E</t>
-  </si>
-  <si>
-    <t>Rehab Services</t>
-  </si>
-  <si>
-    <t>Thank you for taking care of me</t>
-  </si>
-  <si>
-    <t>Was treated well and quickly</t>
-  </si>
-  <si>
-    <t>Was treated well by all staff</t>
-  </si>
-  <si>
-    <t>Labour and Delivery Suite</t>
-  </si>
-  <si>
-    <t>Very engaging staff</t>
-  </si>
-  <si>
-    <t>Orthodontics</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A94" sqref="A88:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,59 +511,59 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -571,10 +574,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -582,238 +585,238 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -824,24 +827,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,62 +852,62 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -912,95 +915,95 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1011,54 +1014,54 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -1066,167 +1069,167 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>30</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
         <v>24</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,45 +1240,45 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -1297,222 +1300,134 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
